--- a/2019年水电及收入数据.xlsx
+++ b/2019年水电及收入数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE126A7-1E24-4F26-A9AB-59BCEB745979}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C531E-0A79-49D7-AB91-97AED1D82757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,11 +15,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019年水电成本、管理费'!$A$3:$L$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2019年水电费'!$A$1:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2019年水电费'!$A$1:$F$241</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">单价!$A$2:$N$178</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F193" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F192" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="236">
   <si>
     <t>学校名称（及校区名）</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1463,10 +1462,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,13 +1477,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,14 +1814,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5349,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5408,42 +5407,42 @@
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9798</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8583.6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2367</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7686.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C4" s="12">
         <v>9403.3799999999992</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>13862.31</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>12020.19</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="12">
         <v>9885.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="12">
-        <v>50795.81</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45869.880000000005</v>
-      </c>
-      <c r="E4" s="5">
-        <v>36108.410000000003</v>
-      </c>
-      <c r="F4" s="12">
-        <v>28922.880000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5451,12 +5450,20 @@
         <v>181</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="C5" s="12">
+        <v>50795.81</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45869.880000000005</v>
+      </c>
+      <c r="E5" s="5">
+        <v>36108.410000000003</v>
+      </c>
+      <c r="F5" s="12">
+        <v>28922.880000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="19" t="s">
@@ -5479,23 +5486,23 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
+      <c r="A7" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5">
-        <v>9798</v>
+        <v>38622.65</v>
       </c>
       <c r="D7" s="5">
-        <v>8583.6</v>
+        <v>18238.55</v>
       </c>
       <c r="E7" s="5">
-        <v>2367</v>
+        <v>22361</v>
       </c>
       <c r="F7" s="5">
-        <v>7686.6</v>
+        <v>8724.1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5503,71 +5510,71 @@
         <v>183</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6425</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6896</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7168</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12">
+        <v>25121.75</v>
+      </c>
+      <c r="D10" s="5">
+        <v>26963.360000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>28026.880000000001</v>
+      </c>
+      <c r="F10" s="12">
+        <v>25278.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="5">
-        <v>38622.65</v>
-      </c>
-      <c r="D8" s="5">
-        <v>18238.55</v>
-      </c>
-      <c r="E8" s="5">
-        <v>22361</v>
-      </c>
-      <c r="F8" s="5">
-        <v>8724.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6425</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6896</v>
-      </c>
-      <c r="E10" s="5">
-        <v>7168</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>82</v>
-      </c>
       <c r="C11" s="12">
-        <v>25121.75</v>
+        <v>103866.2262</v>
       </c>
       <c r="D11" s="5">
-        <v>26963.360000000001</v>
+        <v>75211.270199999999</v>
       </c>
       <c r="E11" s="5">
-        <v>28026.880000000001</v>
+        <v>62655.6414</v>
       </c>
       <c r="F11" s="12">
-        <v>25278.15</v>
+        <v>43058.184399999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5575,123 +5582,123 @@
         <v>184</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="12">
-        <v>103866.2262</v>
-      </c>
-      <c r="D12" s="5">
-        <v>75211.270199999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>62655.6414</v>
-      </c>
-      <c r="F12" s="12">
-        <v>43058.184399999998</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>184</v>
+      <c r="A13" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4522</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7896</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3726.8</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5098.3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="53" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="12">
-        <v>4522</v>
+        <v>17681.02</v>
       </c>
       <c r="D14" s="5">
-        <v>7896</v>
+        <v>30873.360000000001</v>
       </c>
       <c r="E14" s="5">
-        <v>3726.8</v>
+        <v>14571.788</v>
       </c>
       <c r="F14" s="12">
-        <v>5098.3</v>
+        <v>19934.353000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12">
-        <v>17681.02</v>
+        <v>79680.543799999999</v>
       </c>
       <c r="D15" s="5">
-        <v>30873.360000000001</v>
+        <v>110070.6574</v>
       </c>
       <c r="E15" s="5">
-        <v>14571.788</v>
+        <v>36682.131199999996</v>
       </c>
       <c r="F15" s="12">
-        <v>19934.353000000003</v>
+        <v>39413.879999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="12">
-        <v>79680.543799999999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>110070.6574</v>
-      </c>
-      <c r="E16" s="5">
-        <v>36682.131199999996</v>
-      </c>
-      <c r="F16" s="12">
-        <v>39413.879999999997</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>185</v>
+      <c r="A17" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C17" s="5">
+        <v>457</v>
+      </c>
+      <c r="D17" s="12">
+        <v>629</v>
+      </c>
+      <c r="E17" s="12">
+        <v>658</v>
+      </c>
+      <c r="F17" s="5">
+        <v>504</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
-        <v>457</v>
-      </c>
-      <c r="D18" s="12">
-        <v>629</v>
-      </c>
-      <c r="E18" s="12">
-        <v>658</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43</v>
       </c>
       <c r="F18" s="5">
-        <v>504</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5699,19 +5706,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5">
-        <v>50</v>
+        <v>1953.7245</v>
       </c>
       <c r="D19" s="5">
-        <v>54</v>
+        <v>2423.85</v>
       </c>
       <c r="E19" s="5">
-        <v>43</v>
+        <v>2701.3</v>
       </c>
       <c r="F19" s="5">
-        <v>25</v>
+        <v>2038.5014999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5719,39 +5726,39 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1953.7245</v>
+        <v>83</v>
+      </c>
+      <c r="C20" s="12">
+        <v>11734.667700000002</v>
       </c>
       <c r="D20" s="5">
-        <v>2423.85</v>
+        <v>7109.27</v>
       </c>
       <c r="E20" s="5">
-        <v>2701.3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2038.5014999999999</v>
+        <v>4583.6000000000004</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2864.0430000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="12">
-        <v>11734.667700000002</v>
+        <v>80</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1382</v>
       </c>
       <c r="D21" s="5">
-        <v>7109.27</v>
+        <v>2969</v>
       </c>
       <c r="E21" s="5">
-        <v>4583.6000000000004</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2864.0430000000006</v>
+        <v>2434</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2825</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5759,39 +5766,39 @@
         <v>16</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1382</v>
+        <v>82</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4007.7999999999997</v>
       </c>
       <c r="D22" s="5">
-        <v>2969</v>
+        <v>8610.1</v>
       </c>
       <c r="E22" s="5">
-        <v>2434</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2825</v>
+        <v>7058.5999999999995</v>
+      </c>
+      <c r="F22" s="12">
+        <v>8192.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>16</v>
+      <c r="A23" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="12">
-        <v>4007.7999999999997</v>
+        <v>20634.88</v>
       </c>
       <c r="D23" s="5">
-        <v>8610.1</v>
+        <v>29840.720000000001</v>
       </c>
       <c r="E23" s="5">
-        <v>7058.5999999999995</v>
+        <v>18579.68</v>
       </c>
       <c r="F23" s="12">
-        <v>8192.5</v>
+        <v>17215.52</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5799,71 +5806,71 @@
         <v>186</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="12">
-        <v>20634.88</v>
-      </c>
-      <c r="D24" s="5">
-        <v>29840.720000000001</v>
-      </c>
-      <c r="E24" s="5">
-        <v>18579.68</v>
-      </c>
-      <c r="F24" s="12">
-        <v>17215.52</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>186</v>
+      <c r="A25" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C25" s="5">
+        <v>578</v>
+      </c>
+      <c r="D25" s="5">
+        <v>442</v>
+      </c>
+      <c r="E25" s="5">
+        <v>405</v>
+      </c>
+      <c r="F25" s="12">
+        <v>454</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="5">
-        <v>578</v>
+        <v>1647.3</v>
       </c>
       <c r="D26" s="5">
-        <v>442</v>
+        <v>1259.7</v>
       </c>
       <c r="E26" s="5">
-        <v>405</v>
-      </c>
-      <c r="F26" s="12">
-        <v>454</v>
+        <v>1154.25</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1293.9000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="19" t="s">
-        <v>17</v>
+      <c r="A27" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5">
-        <v>1647.3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5">
-        <v>1259.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>1154.25</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <v>1293.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -5871,143 +5878,143 @@
         <v>187</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>187</v>
+      <c r="A29" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4539</v>
+      </c>
+      <c r="D29" s="13">
+        <v>4433</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4209</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3188</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="5">
-        <v>4539</v>
-      </c>
-      <c r="D30" s="13">
-        <v>4433</v>
+        <v>12482.25</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12190.75</v>
       </c>
       <c r="E30" s="5">
-        <v>4209</v>
+        <v>11574.75</v>
       </c>
       <c r="F30" s="5">
-        <v>3188</v>
+        <v>8767</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>18</v>
+      <c r="A31" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5">
-        <v>12482.25</v>
+        <v>60115.5</v>
       </c>
       <c r="D31" s="5">
-        <v>12190.75</v>
+        <v>53656.020000000004</v>
       </c>
       <c r="E31" s="5">
-        <v>11574.75</v>
+        <v>36241.020000000004</v>
       </c>
       <c r="F31" s="5">
-        <v>8767</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="21" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="5">
-        <v>60115.5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>53656.020000000004</v>
-      </c>
-      <c r="E32" s="5">
-        <v>36241.020000000004</v>
-      </c>
-      <c r="F32" s="5">
-        <v>20979</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>18</v>
+      <c r="A33" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2906</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2220</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2007</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2906</v>
+        <v>81</v>
+      </c>
+      <c r="C34" s="12">
+        <v>7991.5</v>
       </c>
       <c r="D34" s="5">
-        <v>2220</v>
+        <v>6105</v>
       </c>
       <c r="E34" s="5">
-        <v>2017</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2007</v>
+        <v>5546.75</v>
+      </c>
+      <c r="F34" s="12">
+        <v>5519.25</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="19" t="s">
-        <v>19</v>
+      <c r="A35" s="21" t="s">
+        <v>189</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="12">
-        <v>7991.5</v>
+        <v>40561.972000000009</v>
       </c>
       <c r="D35" s="5">
-        <v>6105</v>
+        <v>23019.405999999999</v>
       </c>
       <c r="E35" s="5">
-        <v>5546.75</v>
+        <v>17227.84</v>
       </c>
       <c r="F35" s="12">
-        <v>5519.25</v>
+        <v>13001.308000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6015,71 +6022,71 @@
         <v>189</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="12">
-        <v>40561.972000000009</v>
-      </c>
-      <c r="D36" s="5">
-        <v>23019.405999999999</v>
-      </c>
-      <c r="E36" s="5">
-        <v>17227.84</v>
-      </c>
-      <c r="F36" s="12">
-        <v>13001.308000000001</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="21" t="s">
-        <v>189</v>
+      <c r="A37" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C37" s="5">
+        <v>195</v>
+      </c>
+      <c r="D37" s="5">
+        <v>301</v>
+      </c>
+      <c r="E37" s="5">
+        <v>249</v>
+      </c>
+      <c r="F37" s="5">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C38" s="5">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D38" s="5">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5">
-        <v>249</v>
+        <v>8.1</v>
       </c>
       <c r="F38" s="5">
-        <v>159</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5">
-        <v>11</v>
+        <v>525.29999999999995</v>
       </c>
       <c r="D39" s="5">
-        <v>16</v>
+        <v>808.35</v>
       </c>
       <c r="E39" s="5">
-        <v>8.1</v>
+        <v>655.61</v>
       </c>
       <c r="F39" s="5">
-        <v>2.9</v>
+        <v>412.84499999999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6087,39 +6094,39 @@
         <v>20</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5">
-        <v>525.29999999999995</v>
+        <v>3758.2999999999997</v>
       </c>
       <c r="D40" s="5">
-        <v>808.35</v>
+        <v>5571.96</v>
       </c>
       <c r="E40" s="5">
-        <v>655.61</v>
+        <v>3216.09</v>
       </c>
       <c r="F40" s="5">
-        <v>412.84499999999997</v>
+        <v>1500.9599999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5">
-        <v>3758.2999999999997</v>
+        <v>1317</v>
       </c>
       <c r="D41" s="5">
-        <v>5571.96</v>
+        <v>951</v>
       </c>
       <c r="E41" s="5">
-        <v>3216.09</v>
+        <v>1018</v>
       </c>
       <c r="F41" s="5">
-        <v>1500.9599999999998</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6127,111 +6134,111 @@
         <v>86</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5">
-        <v>1317</v>
+        <v>3029.1</v>
       </c>
       <c r="D42" s="5">
-        <v>951</v>
+        <v>2187.3000000000002</v>
       </c>
       <c r="E42" s="5">
-        <v>1018</v>
+        <v>2341.4</v>
       </c>
       <c r="F42" s="5">
-        <v>1296</v>
+        <v>2980.7999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="19" t="s">
-        <v>86</v>
+      <c r="A43" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="5">
-        <v>3029.1</v>
+        <v>79</v>
+      </c>
+      <c r="C43" s="12">
+        <v>27512.782000000003</v>
       </c>
       <c r="D43" s="5">
-        <v>2187.3000000000002</v>
+        <v>11558.39</v>
       </c>
       <c r="E43" s="5">
-        <v>2341.4</v>
-      </c>
-      <c r="F43" s="5">
-        <v>2980.7999999999997</v>
+        <v>10863.3</v>
+      </c>
+      <c r="F43" s="12">
+        <v>10295.168000000001</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="21" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="12">
-        <v>27512.782000000003</v>
-      </c>
-      <c r="D44" s="5">
-        <v>11558.39</v>
-      </c>
-      <c r="E44" s="5">
-        <v>10863.3</v>
-      </c>
-      <c r="F44" s="12">
-        <v>10295.168000000001</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="21" t="s">
-        <v>190</v>
+      <c r="A45" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7973</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5173</v>
+      </c>
+      <c r="E45" s="5">
+        <v>7612</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6563</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="5">
-        <v>7973</v>
+        <v>81</v>
+      </c>
+      <c r="C46" s="12">
+        <v>28503.48</v>
       </c>
       <c r="D46" s="5">
-        <v>5173</v>
+        <v>18493.48</v>
       </c>
       <c r="E46" s="5">
-        <v>7612</v>
-      </c>
-      <c r="F46" s="5">
-        <v>6563</v>
+        <v>27212.9</v>
+      </c>
+      <c r="F46" s="12">
+        <v>23462.725000000002</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="19" t="s">
-        <v>23</v>
+      <c r="A47" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="12">
-        <v>28503.48</v>
+        <v>153197.91</v>
       </c>
       <c r="D47" s="5">
-        <v>18493.48</v>
+        <v>72082.990000000005</v>
       </c>
       <c r="E47" s="5">
-        <v>27212.9</v>
+        <v>104976</v>
       </c>
       <c r="F47" s="12">
-        <v>23462.725000000002</v>
+        <v>60211.91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6239,71 +6246,71 @@
         <v>191</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="12">
-        <v>153197.91</v>
-      </c>
-      <c r="D48" s="5">
-        <v>72082.990000000005</v>
-      </c>
-      <c r="E48" s="5">
-        <v>104976</v>
-      </c>
-      <c r="F48" s="12">
-        <v>60211.91</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="21" t="s">
-        <v>191</v>
+      <c r="A49" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1214</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1192</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1275</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1214</v>
+        <v>81</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4151.88</v>
       </c>
       <c r="D50" s="5">
-        <v>1192</v>
+        <v>4076.64</v>
       </c>
       <c r="E50" s="5">
-        <v>1275</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1563</v>
+        <v>4360.5</v>
+      </c>
+      <c r="F50" s="12">
+        <v>5345.46</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A51" s="19" t="s">
-        <v>24</v>
+      <c r="A51" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="12">
-        <v>4151.88</v>
+        <v>17267.25</v>
       </c>
       <c r="D51" s="5">
-        <v>4076.64</v>
+        <v>12010.9</v>
       </c>
       <c r="E51" s="5">
-        <v>4360.5</v>
+        <v>11176</v>
       </c>
       <c r="F51" s="12">
-        <v>5345.46</v>
+        <v>10411.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1">
@@ -6311,131 +6318,131 @@
         <v>192</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="12">
-        <v>17267.25</v>
-      </c>
-      <c r="D52" s="5">
-        <v>12010.9</v>
-      </c>
-      <c r="E52" s="5">
-        <v>11176</v>
-      </c>
-      <c r="F52" s="12">
-        <v>10411.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A53" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1531</v>
+      </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C54" s="12">
         <v>0</v>
       </c>
       <c r="D54" s="5">
-        <v>1531</v>
+        <v>4899.2</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="19" t="s">
-        <v>25</v>
+      <c r="A55" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C55" s="12">
         <v>0</v>
       </c>
       <c r="D55" s="5">
-        <v>4899.2</v>
+        <v>22243.200000000001</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="12">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>22243.200000000001</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>25</v>
+      <c r="A57" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1306</v>
+      </c>
+      <c r="D57" s="5">
+        <v>651</v>
+      </c>
+      <c r="E57" s="5">
+        <v>594</v>
+      </c>
+      <c r="F57" s="5">
+        <v>863</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1306</v>
-      </c>
-      <c r="D58" s="5">
-        <v>651</v>
-      </c>
-      <c r="E58" s="5">
-        <v>594</v>
-      </c>
-      <c r="F58" s="5">
-        <v>863</v>
+        <v>81</v>
+      </c>
+      <c r="C58" s="12">
+        <v>4571</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2278.5</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2079</v>
+      </c>
+      <c r="F58" s="12">
+        <v>3020.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="19" t="s">
-        <v>26</v>
+      <c r="A59" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="12">
-        <v>4571</v>
+        <v>21244.82</v>
       </c>
       <c r="D59" s="12">
-        <v>2278.5</v>
+        <v>7303.94</v>
       </c>
       <c r="E59" s="12">
-        <v>2079</v>
+        <v>6382.32</v>
       </c>
       <c r="F59" s="12">
-        <v>3020.5</v>
+        <v>7115.44</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6443,69 +6450,69 @@
         <v>194</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="12">
-        <v>21244.82</v>
-      </c>
-      <c r="D60" s="12">
-        <v>7303.94</v>
-      </c>
-      <c r="E60" s="12">
-        <v>6382.32</v>
-      </c>
-      <c r="F60" s="12">
-        <v>7115.44</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="21" t="s">
-        <v>194</v>
+      <c r="A61" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3265</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3256</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3195</v>
+      </c>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="5">
-        <v>3265</v>
-      </c>
-      <c r="D62" s="5">
-        <v>3256</v>
-      </c>
-      <c r="E62" s="5">
-        <v>3195</v>
-      </c>
-      <c r="F62" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C62" s="12">
+        <v>9239.9500000000007</v>
+      </c>
+      <c r="D62" s="12">
+        <v>9214.48</v>
+      </c>
+      <c r="E62" s="12">
+        <v>9041.85</v>
+      </c>
+      <c r="F62" s="13">
+        <v>3736</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>27</v>
+      <c r="A63" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="12">
-        <v>9239.9500000000007</v>
+        <v>59653.978000000003</v>
       </c>
       <c r="D63" s="12">
-        <v>9214.48</v>
+        <v>41848.33</v>
       </c>
       <c r="E63" s="12">
-        <v>9041.85</v>
-      </c>
-      <c r="F63" s="13">
-        <v>3736</v>
+        <v>29586.772000000001</v>
+      </c>
+      <c r="F63" s="12">
+        <v>10572.880000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6513,139 +6520,137 @@
         <v>195</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="12">
-        <v>59653.978000000003</v>
-      </c>
-      <c r="D64" s="12">
-        <v>41848.33</v>
-      </c>
-      <c r="E64" s="12">
-        <v>29586.772000000001</v>
-      </c>
-      <c r="F64" s="12">
-        <v>10572.880000000001</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>195</v>
+      <c r="A65" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C65" s="5">
+        <v>9205</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9447</v>
+      </c>
+      <c r="E65" s="5">
+        <v>9819</v>
+      </c>
+      <c r="F65" s="5">
+        <v>8290</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="5">
-        <v>9205</v>
-      </c>
-      <c r="D66" s="5">
-        <v>9447</v>
-      </c>
-      <c r="E66" s="5">
-        <v>9819</v>
-      </c>
-      <c r="F66" s="5">
-        <v>8290</v>
+        <v>82</v>
+      </c>
+      <c r="C66" s="12">
+        <v>29456</v>
+      </c>
+      <c r="D66" s="12">
+        <v>30230.400000000001</v>
+      </c>
+      <c r="E66" s="12">
+        <v>31420.799999999999</v>
+      </c>
+      <c r="F66" s="12">
+        <v>26528</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>29</v>
+      <c r="A67" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="12">
-        <v>29456</v>
+        <v>153191.84160000004</v>
       </c>
       <c r="D67" s="12">
-        <v>30230.400000000001</v>
+        <v>89626.66</v>
       </c>
       <c r="E67" s="12">
-        <v>31420.799999999999</v>
+        <v>74521.39</v>
       </c>
       <c r="F67" s="12">
-        <v>26528</v>
+        <v>56518.944400000059</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="12">
-        <v>153191.84160000004</v>
-      </c>
-      <c r="D68" s="12">
-        <v>89626.66</v>
-      </c>
-      <c r="E68" s="12">
-        <v>74521.39</v>
-      </c>
-      <c r="F68" s="12">
-        <v>56518.944400000059</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="21" t="s">
-        <v>29</v>
+      <c r="A69" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5">
+        <v>7420</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3374</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3223</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5">
-        <v>7420</v>
-      </c>
-      <c r="E70" s="5">
-        <v>3374</v>
-      </c>
-      <c r="F70" s="5">
-        <v>3223</v>
+        <v>81</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12">
+        <v>17808</v>
+      </c>
+      <c r="E70" s="12">
+        <v>8097.6</v>
+      </c>
+      <c r="F70" s="12">
+        <v>7735.2</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="19" t="s">
-        <v>30</v>
+      <c r="A71" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12">
-        <v>17808</v>
+        <v>116997.78400000001</v>
       </c>
       <c r="E71" s="12">
-        <v>8097.6</v>
+        <v>33616.93</v>
       </c>
       <c r="F71" s="12">
-        <v>7735.2</v>
+        <v>31003.326000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6653,49 +6658,51 @@
         <v>197</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="C72" s="12"/>
-      <c r="D72" s="12">
-        <v>116997.78400000001</v>
-      </c>
-      <c r="E72" s="12">
-        <v>33616.93</v>
-      </c>
-      <c r="F72" s="12">
-        <v>31003.326000000001</v>
-      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="21" t="s">
-        <v>197</v>
+      <c r="A73" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1032</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2938</v>
+      </c>
+      <c r="E73" s="5">
+        <v>4085</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1677</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C74" s="5">
-        <v>1032</v>
+        <v>38</v>
       </c>
       <c r="D74" s="5">
-        <v>2938</v>
+        <v>37</v>
       </c>
       <c r="E74" s="5">
-        <v>4085</v>
+        <v>28</v>
       </c>
       <c r="F74" s="5">
-        <v>1677</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6703,19 +6710,19 @@
         <v>31</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="5">
-        <v>38</v>
+        <v>3177.9</v>
       </c>
       <c r="D75" s="5">
-        <v>37</v>
+        <v>8835.75</v>
       </c>
       <c r="E75" s="5">
-        <v>28</v>
+        <v>12215.61</v>
       </c>
       <c r="F75" s="5">
-        <v>18</v>
+        <v>5034.1499999999996</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6723,39 +6730,39 @@
         <v>31</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" s="5">
-        <v>3177.9</v>
+        <v>33331.379999999997</v>
       </c>
       <c r="D76" s="5">
-        <v>8835.75</v>
+        <v>54360.99</v>
       </c>
       <c r="E76" s="5">
-        <v>12215.61</v>
+        <v>30327.56</v>
       </c>
       <c r="F76" s="5">
-        <v>5034.1499999999996</v>
+        <v>26876.21</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="5">
-        <v>33331.379999999997</v>
-      </c>
-      <c r="D77" s="5">
-        <v>54360.99</v>
+        <v>6740</v>
+      </c>
+      <c r="D77" s="13">
+        <v>5727</v>
       </c>
       <c r="E77" s="5">
-        <v>30327.56</v>
+        <v>7037</v>
       </c>
       <c r="F77" s="5">
-        <v>26876.21</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6763,39 +6770,39 @@
         <v>32</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="5">
-        <v>6740</v>
-      </c>
-      <c r="D78" s="13">
-        <v>5727</v>
+        <v>22815.02</v>
+      </c>
+      <c r="D78" s="5">
+        <v>19162.455000000002</v>
       </c>
       <c r="E78" s="5">
-        <v>7037</v>
+        <v>23597.395</v>
       </c>
       <c r="F78" s="5">
-        <v>7721</v>
+        <v>25980.65</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="19" t="s">
-        <v>32</v>
+      <c r="A79" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" s="5">
-        <v>22815.02</v>
+        <v>79556.039999999994</v>
       </c>
       <c r="D79" s="5">
-        <v>19162.455000000002</v>
+        <v>53098.74</v>
       </c>
       <c r="E79" s="5">
-        <v>23597.395</v>
+        <v>48146.94</v>
       </c>
       <c r="F79" s="5">
-        <v>25980.65</v>
+        <v>41049.18</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6803,51 +6810,51 @@
         <v>198</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="5">
-        <v>79556.039999999994</v>
-      </c>
-      <c r="D80" s="5">
-        <v>53098.74</v>
-      </c>
-      <c r="E80" s="5">
-        <v>48146.94</v>
-      </c>
-      <c r="F80" s="5">
-        <v>41049.18</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="21" t="s">
-        <v>198</v>
+      <c r="A81" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1316</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1803</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2042</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2399</v>
+      </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C82" s="5">
-        <v>1316</v>
+        <v>132</v>
       </c>
       <c r="D82" s="5">
-        <v>1803</v>
+        <v>270</v>
       </c>
       <c r="E82" s="5">
-        <v>2042</v>
+        <v>90</v>
       </c>
       <c r="F82" s="5">
-        <v>2399</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6855,19 +6862,19 @@
         <v>33</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C83" s="5">
-        <v>132</v>
+        <v>6516</v>
       </c>
       <c r="D83" s="5">
-        <v>270</v>
+        <v>9328.5</v>
       </c>
       <c r="E83" s="5">
-        <v>90</v>
+        <v>9594</v>
       </c>
       <c r="F83" s="5">
-        <v>86</v>
+        <v>11182.5</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6875,59 +6882,59 @@
         <v>33</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="5">
-        <v>6516</v>
+        <v>48295.44</v>
       </c>
       <c r="D84" s="5">
-        <v>9328.5</v>
+        <v>39560.400000000001</v>
       </c>
       <c r="E84" s="5">
-        <v>9594</v>
+        <v>29208.6</v>
       </c>
       <c r="F84" s="5">
-        <v>11182.5</v>
+        <v>25316.280000000002</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="19" t="s">
-        <v>33</v>
+      <c r="A85" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="5">
-        <v>48295.44</v>
+        <v>1913</v>
       </c>
       <c r="D85" s="5">
-        <v>39560.400000000001</v>
+        <v>3629</v>
       </c>
       <c r="E85" s="5">
-        <v>29208.6</v>
+        <v>2277</v>
       </c>
       <c r="F85" s="5">
-        <v>25316.280000000002</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="23" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1913</v>
-      </c>
-      <c r="D86" s="5">
-        <v>3629</v>
-      </c>
-      <c r="E86" s="5">
-        <v>2277</v>
-      </c>
-      <c r="F86" s="5">
-        <v>5453</v>
+        <v>82</v>
+      </c>
+      <c r="C86" s="11">
+        <v>6217.25</v>
+      </c>
+      <c r="D86" s="12">
+        <v>11794.25</v>
+      </c>
+      <c r="E86" s="12">
+        <v>7400.25</v>
+      </c>
+      <c r="F86" s="12">
+        <v>17722.25</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -6935,143 +6942,143 @@
         <v>34</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="11">
-        <v>6217.25</v>
+        <v>83</v>
+      </c>
+      <c r="C87" s="12">
+        <v>35448.560000000005</v>
       </c>
       <c r="D87" s="12">
-        <v>11794.25</v>
+        <v>56034.16</v>
       </c>
       <c r="E87" s="12">
-        <v>7400.25</v>
+        <v>26296.48</v>
       </c>
       <c r="F87" s="12">
-        <v>17722.25</v>
+        <v>41420.960000000006</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="23" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B88" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2684</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3203</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3053</v>
+      </c>
+      <c r="F89" s="5">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A90" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="5">
+        <v>6414.76</v>
+      </c>
+      <c r="D90" s="5">
+        <v>7655.17</v>
+      </c>
+      <c r="E90" s="5">
+        <v>7296.67</v>
+      </c>
+      <c r="F90" s="5">
+        <v>9048.5400000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A91" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="12">
-        <v>35448.560000000005</v>
-      </c>
-      <c r="D88" s="12">
-        <v>56034.16</v>
-      </c>
-      <c r="E88" s="12">
-        <v>26296.48</v>
-      </c>
-      <c r="F88" s="12">
-        <v>41420.960000000006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="5">
-        <v>2684</v>
-      </c>
-      <c r="D90" s="5">
-        <v>3203</v>
-      </c>
-      <c r="E90" s="5">
-        <v>3053</v>
-      </c>
-      <c r="F90" s="5">
-        <v>3786</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A91" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="C91" s="5">
-        <v>6414.76</v>
+        <v>43615.76</v>
       </c>
       <c r="D91" s="5">
-        <v>7655.17</v>
+        <v>33617.64</v>
       </c>
       <c r="E91" s="5">
-        <v>7296.67</v>
+        <v>23707.56</v>
       </c>
       <c r="F91" s="5">
-        <v>9048.5400000000009</v>
+        <v>22890.400000000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21.75" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="5">
-        <v>43615.76</v>
-      </c>
-      <c r="D92" s="5">
-        <v>33617.64</v>
-      </c>
-      <c r="E92" s="5">
-        <v>23707.56</v>
-      </c>
-      <c r="F92" s="5">
-        <v>22890.400000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="21.75" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1207</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1387</v>
+      </c>
+      <c r="E93" s="5">
+        <v>961</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1185</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C94" s="5">
-        <v>1207</v>
+        <v>5</v>
       </c>
       <c r="D94" s="5">
-        <v>1387</v>
+        <v>5</v>
       </c>
       <c r="E94" s="5">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="F94" s="5">
-        <v>1185</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7079,19 +7086,19 @@
         <v>36</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" s="5">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>5</v>
-      </c>
-      <c r="E95" s="5">
-        <v>0</v>
-      </c>
-      <c r="F95" s="5">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="C95" s="12">
+        <v>3636</v>
+      </c>
+      <c r="D95" s="12">
+        <v>4176</v>
+      </c>
+      <c r="E95" s="12">
+        <v>2883</v>
+      </c>
+      <c r="F95" s="12">
+        <v>3570</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7099,263 +7106,263 @@
         <v>36</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C96" s="12">
-        <v>3636</v>
+        <v>19838.75</v>
       </c>
       <c r="D96" s="12">
-        <v>4176</v>
+        <v>15027.42</v>
       </c>
       <c r="E96" s="12">
-        <v>2883</v>
+        <v>8305.6440000000002</v>
       </c>
       <c r="F96" s="12">
-        <v>3570</v>
+        <v>7731.5980000000009</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" s="12">
-        <v>19838.75</v>
-      </c>
-      <c r="D97" s="12">
-        <v>15027.42</v>
-      </c>
-      <c r="E97" s="12">
-        <v>8305.6440000000002</v>
-      </c>
-      <c r="F97" s="12">
-        <v>7731.5980000000009</v>
+        <v>80</v>
+      </c>
+      <c r="C97" s="5">
+        <v>13179</v>
+      </c>
+      <c r="D97" s="5">
+        <v>11540</v>
+      </c>
+      <c r="E97" s="5">
+        <v>13468</v>
+      </c>
+      <c r="F97" s="5">
+        <v>11166</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="5">
-        <v>13179</v>
-      </c>
-      <c r="D98" s="5">
-        <v>11540</v>
-      </c>
-      <c r="E98" s="5">
-        <v>13468</v>
-      </c>
-      <c r="F98" s="5">
-        <v>11166</v>
+        <v>82</v>
+      </c>
+      <c r="C98" s="12">
+        <v>44808.6</v>
+      </c>
+      <c r="D98" s="12">
+        <v>39236</v>
+      </c>
+      <c r="E98" s="12">
+        <v>45791.199999999997</v>
+      </c>
+      <c r="F98" s="12">
+        <v>37964.400000000001</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="21" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C99" s="12">
-        <v>44808.6</v>
+        <v>155707.24799999999</v>
       </c>
       <c r="D99" s="12">
-        <v>39236</v>
+        <v>100856.08</v>
       </c>
       <c r="E99" s="12">
-        <v>45791.199999999997</v>
+        <v>94528.784</v>
       </c>
       <c r="F99" s="12">
-        <v>37964.400000000001</v>
+        <v>63944.288</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="21" t="s">
-        <v>37</v>
+      <c r="A100" s="63" t="s">
+        <v>201</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="12">
-        <v>155707.24799999999</v>
-      </c>
-      <c r="D100" s="12">
-        <v>100856.08</v>
-      </c>
-      <c r="E100" s="12">
-        <v>94528.784</v>
-      </c>
-      <c r="F100" s="12">
-        <v>63944.288</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="63" t="s">
-        <v>201</v>
+      <c r="A101" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C101" s="5">
+        <v>5716</v>
+      </c>
+      <c r="D101" s="5">
+        <v>6470</v>
+      </c>
+      <c r="E101" s="5">
+        <v>7159</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6748</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="5">
-        <v>5716</v>
-      </c>
-      <c r="D102" s="5">
-        <v>6470</v>
-      </c>
-      <c r="E102" s="5">
-        <v>7159</v>
-      </c>
-      <c r="F102" s="5">
-        <v>6748</v>
+        <v>81</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="24" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C103" s="12">
-        <v>0</v>
+        <v>50737.05</v>
       </c>
       <c r="D103" s="12">
-        <v>0</v>
+        <v>30907.710000000003</v>
       </c>
       <c r="E103" s="12">
-        <v>0</v>
+        <v>24810.030000000002</v>
       </c>
       <c r="F103" s="12">
-        <v>0</v>
+        <v>18896.759999999998</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="24" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="12">
-        <v>50737.05</v>
-      </c>
-      <c r="D104" s="12">
-        <v>30907.710000000003</v>
-      </c>
-      <c r="E104" s="12">
-        <v>24810.030000000002</v>
-      </c>
-      <c r="F104" s="12">
-        <v>18896.759999999998</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="24" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1135</v>
+      </c>
+      <c r="D105" s="5">
+        <v>997</v>
+      </c>
+      <c r="E105" s="5">
+        <v>828</v>
+      </c>
+      <c r="F105" s="5">
+        <v>879</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C106" s="5">
-        <v>1135</v>
+        <v>176</v>
       </c>
       <c r="D106" s="5">
-        <v>997</v>
+        <v>111</v>
       </c>
       <c r="E106" s="5">
-        <v>828</v>
+        <v>65</v>
       </c>
       <c r="F106" s="5">
-        <v>879</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="5">
-        <v>176</v>
-      </c>
-      <c r="D107" s="5">
-        <v>111</v>
-      </c>
-      <c r="E107" s="5">
-        <v>65</v>
-      </c>
-      <c r="F107" s="5">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="C107" s="12">
+        <v>3893.67</v>
+      </c>
+      <c r="D107" s="12">
+        <v>3290.76</v>
+      </c>
+      <c r="E107" s="12">
+        <v>2652.21</v>
+      </c>
+      <c r="F107" s="12">
+        <v>2797.74</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C108" s="12">
-        <v>3893.67</v>
+        <v>22331.57</v>
       </c>
       <c r="D108" s="12">
-        <v>3290.76</v>
+        <v>18502.38</v>
       </c>
       <c r="E108" s="12">
-        <v>2652.21</v>
+        <v>7315.83</v>
       </c>
       <c r="F108" s="12">
-        <v>2797.74</v>
+        <v>10709.8</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="24" t="s">
-        <v>94</v>
+      <c r="A109" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" s="12">
-        <v>22331.57</v>
-      </c>
-      <c r="D109" s="12">
-        <v>18502.38</v>
-      </c>
-      <c r="E109" s="12">
-        <v>7315.83</v>
-      </c>
-      <c r="F109" s="12">
-        <v>10709.8</v>
+        <v>84</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1356</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2720</v>
+      </c>
+      <c r="E109" s="5">
+        <v>2837</v>
+      </c>
+      <c r="F109" s="5">
+        <v>2585</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7363,399 +7370,399 @@
         <v>40</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C110" s="5">
-        <v>1356</v>
+        <v>3444.24</v>
       </c>
       <c r="D110" s="5">
-        <v>2720</v>
+        <v>6908.8</v>
       </c>
       <c r="E110" s="5">
-        <v>2837</v>
+        <v>7205.9800000000005</v>
       </c>
       <c r="F110" s="5">
-        <v>2585</v>
+        <v>6565.9000000000005</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="19" t="s">
-        <v>40</v>
+      <c r="A111" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="5">
-        <v>3444.24</v>
+        <v>79</v>
+      </c>
+      <c r="C111" s="12">
+        <v>13346.38</v>
       </c>
       <c r="D111" s="5">
-        <v>6908.8</v>
-      </c>
-      <c r="E111" s="5">
-        <v>7205.9800000000005</v>
-      </c>
-      <c r="F111" s="5">
-        <v>6565.9000000000005</v>
+        <v>25427.200000000001</v>
+      </c>
+      <c r="E111" s="12">
+        <v>17056.059999999998</v>
+      </c>
+      <c r="F111" s="12">
+        <v>10879.06</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="63" t="s">
         <v>203</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" s="12">
-        <v>13346.38</v>
-      </c>
-      <c r="D112" s="5">
-        <v>25427.200000000001</v>
-      </c>
-      <c r="E112" s="12">
-        <v>17056.059999999998</v>
-      </c>
-      <c r="F112" s="12">
-        <v>10879.06</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="63" t="s">
-        <v>203</v>
+      <c r="A113" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C113" s="5">
+        <v>288</v>
+      </c>
+      <c r="D113" s="5">
+        <v>233</v>
+      </c>
+      <c r="E113" s="5">
+        <v>259</v>
+      </c>
+      <c r="F113" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="24" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="5">
-        <v>288</v>
-      </c>
-      <c r="D114" s="5">
-        <v>233</v>
-      </c>
-      <c r="E114" s="5">
-        <v>259</v>
-      </c>
-      <c r="F114" s="5">
-        <v>357</v>
+        <v>82</v>
+      </c>
+      <c r="C114" s="12">
+        <v>662.4</v>
+      </c>
+      <c r="D114" s="12">
+        <v>535.9</v>
+      </c>
+      <c r="E114" s="12">
+        <v>595.70000000000005</v>
+      </c>
+      <c r="F114" s="12">
+        <v>821.1</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C115" s="12">
-        <v>662.4</v>
+        <v>8636.880000000001</v>
       </c>
       <c r="D115" s="12">
-        <v>535.9</v>
+        <v>3666.88</v>
       </c>
       <c r="E115" s="12">
-        <v>595.70000000000005</v>
+        <v>4488.96</v>
       </c>
       <c r="F115" s="12">
-        <v>821.1</v>
+        <v>5154.24</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="24" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C116" s="12">
-        <v>8636.880000000001</v>
-      </c>
-      <c r="D116" s="12">
-        <v>3666.88</v>
-      </c>
-      <c r="E116" s="12">
-        <v>4488.96</v>
-      </c>
-      <c r="F116" s="12">
-        <v>5154.24</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="24" t="s">
-        <v>204</v>
+      <c r="A117" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C117" s="5">
+        <v>768</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1311</v>
+      </c>
+      <c r="E117" s="5">
+        <v>980</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1333</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="21" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C118" s="5">
-        <v>768</v>
+        <v>1912.3200000000002</v>
       </c>
       <c r="D118" s="5">
-        <v>1311</v>
+        <v>3264.3900000000003</v>
       </c>
       <c r="E118" s="5">
-        <v>980</v>
+        <v>2440.1999999999998</v>
       </c>
       <c r="F118" s="5">
-        <v>1333</v>
+        <v>3319.17</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="21" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C119" s="5">
-        <v>1912.3200000000002</v>
+        <v>11613.018900000001</v>
       </c>
       <c r="D119" s="5">
-        <v>3264.3900000000003</v>
+        <v>10906.987500000001</v>
       </c>
       <c r="E119" s="5">
-        <v>2440.1999999999998</v>
+        <v>5692.16</v>
       </c>
       <c r="F119" s="5">
-        <v>3319.17</v>
+        <v>5709.84</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="21" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C120" s="5">
-        <v>11613.018900000001</v>
-      </c>
-      <c r="D120" s="5">
-        <v>10906.987500000001</v>
-      </c>
-      <c r="E120" s="5">
-        <v>5692.16</v>
-      </c>
-      <c r="F120" s="5">
-        <v>5709.84</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="21" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C121" s="5">
+        <v>4239</v>
+      </c>
+      <c r="D121" s="5">
+        <v>5918</v>
+      </c>
+      <c r="E121" s="5">
+        <v>5851</v>
+      </c>
+      <c r="F121" s="5">
+        <v>5991</v>
+      </c>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" s="5">
-        <v>4239</v>
+        <v>14115.87</v>
       </c>
       <c r="D122" s="5">
-        <v>5918</v>
+        <v>19706.939999999999</v>
       </c>
       <c r="E122" s="5">
-        <v>5851</v>
+        <v>19483.8</v>
       </c>
       <c r="F122" s="5">
-        <v>5991</v>
+        <v>19950.03</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="21" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C123" s="5">
-        <v>14115.87</v>
+        <v>52051.68</v>
       </c>
       <c r="D123" s="5">
-        <v>19706.939999999999</v>
+        <v>36648.18</v>
       </c>
       <c r="E123" s="5">
-        <v>19483.8</v>
+        <v>29444.6</v>
       </c>
       <c r="F123" s="5">
-        <v>19950.03</v>
+        <v>19421.64</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="21" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="5">
-        <v>52051.68</v>
-      </c>
-      <c r="D124" s="5">
-        <v>36648.18</v>
-      </c>
-      <c r="E124" s="5">
-        <v>29444.6</v>
-      </c>
-      <c r="F124" s="5">
-        <v>19421.64</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="21" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3090</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3429</v>
+      </c>
+      <c r="E125" s="5">
+        <v>3875</v>
+      </c>
+      <c r="F125" s="5">
+        <v>3729</v>
+      </c>
     </row>
     <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C126" s="5">
-        <v>3090</v>
+        <v>8497.5</v>
       </c>
       <c r="D126" s="5">
-        <v>3429</v>
+        <v>9429.75</v>
       </c>
       <c r="E126" s="5">
-        <v>3875</v>
+        <v>2810.5</v>
       </c>
       <c r="F126" s="5">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>10254.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="20.25" customHeight="1">
       <c r="A127" s="21" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C127" s="5">
-        <v>8497.5</v>
+        <v>48234.928000000007</v>
       </c>
       <c r="D127" s="5">
-        <v>9429.75</v>
+        <v>41851.558000000005</v>
       </c>
       <c r="E127" s="5">
-        <v>2810.5</v>
+        <v>48834.879999999997</v>
       </c>
       <c r="F127" s="5">
-        <v>10254.75</v>
+        <v>30058.060000000005</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="20.25" customHeight="1">
       <c r="A128" s="21" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="5">
-        <v>48234.928000000007</v>
-      </c>
-      <c r="D128" s="5">
-        <v>41851.558000000005</v>
-      </c>
-      <c r="E128" s="5">
-        <v>48834.879999999997</v>
-      </c>
-      <c r="F128" s="5">
-        <v>30058.060000000005</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="20.25" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A129" s="21" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C129" s="5">
+        <v>9720</v>
+      </c>
+      <c r="D129" s="5">
+        <v>8737</v>
+      </c>
+      <c r="E129" s="5">
+        <v>9522</v>
+      </c>
+      <c r="F129" s="5">
+        <v>8535</v>
+      </c>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A130" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C130" s="5">
-        <v>9720</v>
+        <v>31784.400000000001</v>
       </c>
       <c r="D130" s="5">
-        <v>8737</v>
+        <v>28569.99</v>
       </c>
       <c r="E130" s="5">
-        <v>9522</v>
+        <v>31136.94</v>
       </c>
       <c r="F130" s="5">
-        <v>8535</v>
+        <v>27909.45</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A131" s="21" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C131" s="5">
-        <v>31784.400000000001</v>
+        <v>156821.427</v>
       </c>
       <c r="D131" s="5">
-        <v>28569.99</v>
+        <v>98464.085999999996</v>
       </c>
       <c r="E131" s="5">
-        <v>31136.94</v>
+        <v>79470.719999999987</v>
       </c>
       <c r="F131" s="5">
-        <v>27909.45</v>
+        <v>54742.715999999993</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7763,51 +7770,51 @@
         <v>208</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="5">
-        <v>156821.427</v>
-      </c>
-      <c r="D132" s="5">
-        <v>98464.085999999996</v>
-      </c>
-      <c r="E132" s="5">
-        <v>79470.719999999987</v>
-      </c>
-      <c r="F132" s="5">
-        <v>54742.715999999993</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A133" s="21" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C133" s="5">
+        <v>6548</v>
+      </c>
+      <c r="D133" s="5">
+        <v>5684</v>
+      </c>
+      <c r="E133" s="5">
+        <v>10179</v>
+      </c>
+      <c r="F133" s="5">
+        <v>8370</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A134" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C134" s="5">
-        <v>6548</v>
+        <v>20953.599999999999</v>
       </c>
       <c r="D134" s="5">
-        <v>5684</v>
+        <v>18188.8</v>
       </c>
       <c r="E134" s="5">
-        <v>10179</v>
+        <v>32572.800000000003</v>
       </c>
       <c r="F134" s="5">
-        <v>8370</v>
+        <v>26784.000000000004</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7815,91 +7822,91 @@
         <v>47</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="5">
-        <v>20953.599999999999</v>
+        <v>79</v>
+      </c>
+      <c r="C135" s="64">
+        <v>156862.62</v>
       </c>
       <c r="D135" s="5">
-        <v>18188.8</v>
+        <v>75694.45</v>
       </c>
       <c r="E135" s="5">
-        <v>32572.800000000003</v>
+        <v>101152.06999999999</v>
       </c>
       <c r="F135" s="5">
-        <v>26784.000000000004</v>
+        <v>66193.906000000003</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A136" s="21" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" s="71">
-        <v>156862.62</v>
-      </c>
-      <c r="D136" s="5">
-        <v>75694.45</v>
-      </c>
-      <c r="E136" s="5">
-        <v>101152.06999999999</v>
-      </c>
-      <c r="F136" s="5">
-        <v>66193.906000000003</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A137" s="21" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C137" s="5">
+        <v>5472</v>
+      </c>
+      <c r="D137" s="5">
+        <v>3108</v>
+      </c>
+      <c r="E137" s="5">
+        <v>4575</v>
+      </c>
+      <c r="F137" s="5">
+        <v>3885</v>
+      </c>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A138" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C138" s="5">
-        <v>5472</v>
+        <v>16142.400000000001</v>
       </c>
       <c r="D138" s="5">
-        <v>3108</v>
+        <v>9168.6</v>
       </c>
       <c r="E138" s="5">
-        <v>4575</v>
+        <v>13496.25</v>
       </c>
       <c r="F138" s="5">
-        <v>3885</v>
+        <v>11460.75</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A139" s="21" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C139" s="5">
-        <v>16142.400000000001</v>
+        <v>102435.20000000001</v>
       </c>
       <c r="D139" s="5">
-        <v>9168.6</v>
+        <v>41726.204000000005</v>
       </c>
       <c r="E139" s="5">
-        <v>13496.25</v>
+        <v>45975.866000000002</v>
       </c>
       <c r="F139" s="5">
-        <v>11460.75</v>
+        <v>32433.33</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7907,51 +7914,51 @@
         <v>210</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" s="5">
-        <v>102435.20000000001</v>
-      </c>
-      <c r="D140" s="5">
-        <v>41726.204000000005</v>
-      </c>
-      <c r="E140" s="5">
-        <v>45975.866000000002</v>
-      </c>
-      <c r="F140" s="5">
-        <v>32433.33</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="21" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2331</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2567</v>
+      </c>
+      <c r="E141" s="5">
+        <v>3216</v>
+      </c>
+      <c r="F141" s="5">
+        <v>2505</v>
+      </c>
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C142" s="5">
-        <v>2331</v>
+        <v>7459.2</v>
       </c>
       <c r="D142" s="5">
-        <v>2567</v>
+        <v>8214.4</v>
       </c>
       <c r="E142" s="5">
-        <v>3216</v>
+        <v>10291.200000000001</v>
       </c>
       <c r="F142" s="5">
-        <v>2505</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -7959,71 +7966,71 @@
         <v>101</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C143" s="5">
-        <v>7459.2</v>
+        <v>43137.380000000005</v>
       </c>
       <c r="D143" s="5">
-        <v>8214.4</v>
+        <v>38807.01999999999</v>
       </c>
       <c r="E143" s="5">
-        <v>10291.200000000001</v>
+        <v>34204.43</v>
       </c>
       <c r="F143" s="5">
-        <v>8016</v>
+        <v>22303.33</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="21" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C144" s="5">
-        <v>43137.380000000005</v>
-      </c>
-      <c r="D144" s="5">
-        <v>38807.01999999999</v>
-      </c>
-      <c r="E144" s="5">
-        <v>34204.43</v>
-      </c>
-      <c r="F144" s="5">
-        <v>22303.33</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="21" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1629</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1751</v>
+      </c>
+      <c r="E145" s="5">
+        <v>2176</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1647</v>
+      </c>
     </row>
     <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C146" s="5">
-        <v>1629</v>
+        <v>5734.08</v>
       </c>
       <c r="D146" s="5">
-        <v>1751</v>
+        <v>6163.52</v>
       </c>
       <c r="E146" s="5">
-        <v>2176</v>
+        <v>7659.5199999999995</v>
       </c>
       <c r="F146" s="5">
-        <v>1647</v>
+        <v>5797.4400000000005</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8031,215 +8038,215 @@
         <v>102</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C147" s="5">
-        <v>5734.08</v>
+        <v>32242.86</v>
       </c>
       <c r="D147" s="5">
-        <v>6163.52</v>
+        <v>25781.220000000005</v>
       </c>
       <c r="E147" s="5">
-        <v>7659.5199999999995</v>
+        <v>23764.32</v>
       </c>
       <c r="F147" s="5">
-        <v>5797.4400000000005</v>
+        <v>15159.419999999998</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="21" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C148" s="5">
-        <v>32242.86</v>
-      </c>
-      <c r="D148" s="5">
-        <v>25781.220000000005</v>
-      </c>
-      <c r="E148" s="5">
-        <v>23764.32</v>
-      </c>
-      <c r="F148" s="5">
-        <v>15159.419999999998</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="21" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C149" s="5">
+        <v>5727</v>
+      </c>
+      <c r="D149" s="5">
+        <v>9438</v>
+      </c>
+      <c r="E149" s="5">
+        <v>7425</v>
+      </c>
+      <c r="F149" s="5">
+        <v>9598</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C150" s="5">
-        <v>5727</v>
+        <v>14260.230000000001</v>
       </c>
       <c r="D150" s="5">
-        <v>9438</v>
+        <v>23500.620000000003</v>
       </c>
       <c r="E150" s="5">
-        <v>7425</v>
+        <v>18488.25</v>
       </c>
       <c r="F150" s="5">
-        <v>9598</v>
+        <v>23899.02</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="21" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C151" s="5">
-        <v>14260.230000000001</v>
+        <v>51294.492900000005</v>
       </c>
       <c r="D151" s="5">
-        <v>23500.620000000003</v>
+        <v>46102.481700000004</v>
       </c>
       <c r="E151" s="5">
-        <v>18488.25</v>
+        <v>23775.807000000001</v>
       </c>
       <c r="F151" s="5">
-        <v>23899.02</v>
+        <v>19126.72</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="21" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C152" s="5">
-        <v>51294.492900000005</v>
-      </c>
-      <c r="D152" s="5">
-        <v>46102.481700000004</v>
-      </c>
-      <c r="E152" s="5">
-        <v>23775.807000000001</v>
-      </c>
-      <c r="F152" s="5">
-        <v>19126.72</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="21" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C153" s="5">
+        <v>5572</v>
+      </c>
+      <c r="D153" s="5">
+        <v>5845</v>
+      </c>
+      <c r="E153" s="5">
+        <v>6387</v>
+      </c>
+      <c r="F153" s="5">
+        <v>5836</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C154" s="5">
-        <v>5572</v>
+        <v>0</v>
       </c>
       <c r="D154" s="5">
-        <v>5845</v>
+        <v>0</v>
       </c>
       <c r="E154" s="5">
-        <v>6387</v>
+        <v>0</v>
       </c>
       <c r="F154" s="5">
-        <v>5836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="21" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C155" s="5">
-        <v>0</v>
+        <v>99922.680000000139</v>
       </c>
       <c r="D155" s="5">
-        <v>0</v>
+        <v>78267.600000000006</v>
       </c>
       <c r="E155" s="5">
-        <v>0</v>
+        <v>69347.879999999961</v>
       </c>
       <c r="F155" s="5">
-        <v>0</v>
+        <v>35149.68</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="21" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C156" s="5">
-        <v>99922.680000000139</v>
-      </c>
-      <c r="D156" s="5">
-        <v>78267.600000000006</v>
-      </c>
-      <c r="E156" s="5">
-        <v>69347.879999999961</v>
-      </c>
-      <c r="F156" s="5">
-        <v>35149.68</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="21" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C157" s="5">
+        <v>2988</v>
+      </c>
+      <c r="D157" s="5">
+        <v>4839</v>
+      </c>
+      <c r="E157" s="5">
+        <v>3886</v>
+      </c>
+      <c r="F157" s="5">
+        <v>3315</v>
+      </c>
     </row>
     <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C158" s="5">
-        <v>2988</v>
+        <v>6752.8799999999992</v>
       </c>
       <c r="D158" s="5">
-        <v>4839</v>
+        <v>10936.14</v>
       </c>
       <c r="E158" s="5">
-        <v>3886</v>
+        <v>8782.3599999999988</v>
       </c>
       <c r="F158" s="5">
-        <v>3315</v>
+        <v>7491.9</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8247,71 +8254,71 @@
         <v>107</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C159" s="5">
-        <v>6752.8799999999992</v>
+        <v>19639.8</v>
       </c>
       <c r="D159" s="5">
-        <v>10936.14</v>
+        <v>20967.599999999999</v>
       </c>
       <c r="E159" s="5">
-        <v>8782.3599999999988</v>
+        <v>14847</v>
       </c>
       <c r="F159" s="5">
-        <v>7491.9</v>
+        <v>10255.799999999999</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="21" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C160" s="5">
-        <v>19639.8</v>
-      </c>
-      <c r="D160" s="5">
-        <v>20967.599999999999</v>
-      </c>
-      <c r="E160" s="5">
-        <v>14847</v>
-      </c>
-      <c r="F160" s="5">
-        <v>10255.799999999999</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="21" t="s">
-        <v>215</v>
+      <c r="A161" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C161" s="5">
+        <v>2055</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1788</v>
+      </c>
+      <c r="E161" s="5">
+        <v>2693</v>
+      </c>
+      <c r="F161" s="5">
+        <v>2473</v>
+      </c>
     </row>
     <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C162" s="5">
-        <v>2055</v>
+        <v>958</v>
       </c>
       <c r="D162" s="5">
-        <v>1788</v>
+        <v>566</v>
       </c>
       <c r="E162" s="5">
-        <v>2693</v>
+        <v>745</v>
       </c>
       <c r="F162" s="5">
-        <v>2473</v>
+        <v>542</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8319,39 +8326,39 @@
         <v>108</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C163" s="5">
-        <v>958</v>
+        <v>9385.6</v>
       </c>
       <c r="D163" s="5">
-        <v>566</v>
+        <v>7273.6</v>
       </c>
       <c r="E163" s="5">
-        <v>745</v>
+        <v>10620.800000000001</v>
       </c>
       <c r="F163" s="5">
-        <v>542</v>
+        <v>9392</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="23" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C164" s="5">
-        <v>9385.6</v>
+        <v>425</v>
       </c>
       <c r="D164" s="5">
-        <v>7273.6</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="E164" s="5">
-        <v>10620.800000000001</v>
+        <v>404.6</v>
       </c>
       <c r="F164" s="5">
-        <v>9392</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8359,39 +8366,39 @@
         <v>53</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C165" s="5">
-        <v>425</v>
+        <v>78362.399999999994</v>
       </c>
       <c r="D165" s="5">
-        <v>275.39999999999998</v>
+        <v>39159</v>
       </c>
       <c r="E165" s="5">
-        <v>404.6</v>
+        <v>44667</v>
       </c>
       <c r="F165" s="5">
-        <v>272</v>
+        <v>31737.599999999999</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C166" s="5">
-        <v>78362.399999999994</v>
+        <v>760</v>
       </c>
       <c r="D166" s="5">
-        <v>39159</v>
+        <v>1552</v>
       </c>
       <c r="E166" s="5">
-        <v>44667</v>
+        <v>1413</v>
       </c>
       <c r="F166" s="5">
-        <v>31737.599999999999</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8399,39 +8406,39 @@
         <v>54</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C167" s="5">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="D167" s="5">
-        <v>1552</v>
+        <v>776</v>
       </c>
       <c r="E167" s="5">
-        <v>1413</v>
+        <v>706.5</v>
       </c>
       <c r="F167" s="5">
-        <v>1961</v>
+        <v>980.5</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="23" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C168" s="5">
-        <v>380</v>
+        <v>10446.6</v>
       </c>
       <c r="D168" s="5">
-        <v>776</v>
+        <v>5323.5</v>
       </c>
       <c r="E168" s="5">
-        <v>706.5</v>
+        <v>4529.3</v>
       </c>
       <c r="F168" s="5">
-        <v>980.5</v>
+        <v>4018.85</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8439,71 +8446,71 @@
         <v>216</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C169" s="5">
-        <v>10446.6</v>
-      </c>
-      <c r="D169" s="5">
-        <v>5323.5</v>
-      </c>
-      <c r="E169" s="5">
-        <v>4529.3</v>
-      </c>
-      <c r="F169" s="5">
-        <v>4018.85</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A170" s="23" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C170" s="5">
+        <v>775</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1028</v>
+      </c>
+      <c r="E170" s="5">
+        <v>866</v>
+      </c>
+      <c r="F170" s="5">
+        <v>1156</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A171" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C171" s="5">
-        <v>775</v>
+        <v>2673.75</v>
       </c>
       <c r="D171" s="5">
-        <v>1028</v>
+        <v>3546.6</v>
       </c>
       <c r="E171" s="5">
-        <v>866</v>
+        <v>2987.7</v>
       </c>
       <c r="F171" s="5">
-        <v>1156</v>
+        <v>3988.2000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A172" s="23" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C172" s="5">
-        <v>2673.75</v>
+        <v>13363.7</v>
       </c>
       <c r="D172" s="5">
-        <v>3546.6</v>
+        <v>11854.1</v>
       </c>
       <c r="E172" s="5">
-        <v>2987.7</v>
+        <v>8453.25</v>
       </c>
       <c r="F172" s="5">
-        <v>3988.2000000000003</v>
+        <v>7298.95</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8511,71 +8518,71 @@
         <v>217</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" s="5">
-        <v>13363.7</v>
-      </c>
-      <c r="D173" s="5">
-        <v>11854.1</v>
-      </c>
-      <c r="E173" s="5">
-        <v>8453.25</v>
-      </c>
-      <c r="F173" s="5">
-        <v>7298.95</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A174" s="23" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2200</v>
+      </c>
+      <c r="D174" s="5">
+        <v>4501</v>
+      </c>
+      <c r="E174" s="5">
+        <v>4675</v>
+      </c>
+      <c r="F174" s="5">
+        <v>4387</v>
+      </c>
     </row>
     <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C175" s="5">
-        <v>2200</v>
+        <v>8800</v>
       </c>
       <c r="D175" s="5">
-        <v>4501</v>
+        <v>18004</v>
       </c>
       <c r="E175" s="5">
-        <v>4675</v>
+        <v>18700</v>
       </c>
       <c r="F175" s="5">
-        <v>4387</v>
+        <v>17548</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A176" s="23" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C176" s="5">
-        <v>8800</v>
+        <v>23231.45</v>
       </c>
       <c r="D176" s="5">
-        <v>18004</v>
+        <v>32766.800000000003</v>
       </c>
       <c r="E176" s="5">
-        <v>18700</v>
+        <v>28033.500000000004</v>
       </c>
       <c r="F176" s="5">
-        <v>17548</v>
+        <v>19815.400000000001</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -8583,478 +8590,478 @@
         <v>218</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C177" s="5">
-        <v>23231.45</v>
-      </c>
-      <c r="D177" s="5">
-        <v>32766.800000000003</v>
-      </c>
-      <c r="E177" s="5">
-        <v>28033.500000000004</v>
-      </c>
-      <c r="F177" s="5">
-        <v>19815.400000000001</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A178" s="23" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C178" s="5">
+        <v>4781</v>
+      </c>
+      <c r="D178" s="5">
+        <v>15563</v>
+      </c>
+      <c r="E178" s="5">
+        <v>8976</v>
+      </c>
+      <c r="F178" s="5">
+        <v>15365</v>
+      </c>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C179" s="5">
-        <v>4781</v>
+        <v>21514.5</v>
       </c>
       <c r="D179" s="5">
-        <v>15563</v>
+        <v>70033.5</v>
       </c>
       <c r="E179" s="5">
-        <v>8976</v>
+        <v>40392</v>
       </c>
       <c r="F179" s="5">
-        <v>15365</v>
+        <v>69142.5</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="23" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C180" s="5">
-        <v>21514.5</v>
+        <v>47443.200000000004</v>
       </c>
       <c r="D180" s="5">
-        <v>70033.5</v>
+        <v>69350.400000000009</v>
       </c>
       <c r="E180" s="5">
-        <v>40392</v>
+        <v>30419.200000000004</v>
       </c>
       <c r="F180" s="5">
-        <v>69142.5</v>
+        <v>37587.199999999997</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="23" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="5">
-        <v>47443.200000000004</v>
-      </c>
-      <c r="D181" s="5">
-        <v>69350.400000000009</v>
-      </c>
-      <c r="E181" s="5">
-        <v>30419.200000000004</v>
-      </c>
-      <c r="F181" s="5">
-        <v>37587.199999999997</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="23" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C182" s="5">
+        <v>342</v>
+      </c>
+      <c r="D182" s="5">
+        <v>265</v>
+      </c>
+      <c r="E182" s="5">
+        <v>260</v>
+      </c>
+      <c r="F182" s="5">
+        <v>342</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C183" s="5">
-        <v>342</v>
+        <v>1102.95</v>
       </c>
       <c r="D183" s="5">
-        <v>265</v>
+        <v>854.63</v>
       </c>
       <c r="E183" s="5">
-        <v>260</v>
+        <v>838.5</v>
       </c>
       <c r="F183" s="5">
-        <v>342</v>
+        <v>1102.95</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="23" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C184" s="5">
-        <v>1102.95</v>
+        <v>5743.65</v>
       </c>
       <c r="D184" s="5">
-        <v>854.63</v>
+        <v>1322.2</v>
       </c>
       <c r="E184" s="5">
-        <v>838.5</v>
+        <v>2128.5</v>
       </c>
       <c r="F184" s="5">
-        <v>1102.95</v>
+        <v>1173.7</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="23" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C185" s="5">
-        <v>5743.65</v>
-      </c>
-      <c r="D185" s="5">
-        <v>1322.2</v>
-      </c>
-      <c r="E185" s="5">
-        <v>2128.5</v>
-      </c>
-      <c r="F185" s="5">
-        <v>1173.7</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="23" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="B186" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
+      <c r="C186" s="5">
+        <v>196</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1845</v>
+      </c>
+      <c r="E186" s="5">
+        <v>1207</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1675</v>
+      </c>
     </row>
     <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C187" s="5">
-        <v>196</v>
+        <v>632.1</v>
       </c>
       <c r="D187" s="5">
-        <v>1845</v>
+        <v>6503.63</v>
       </c>
       <c r="E187" s="5">
-        <v>1207</v>
+        <v>4254.6750000000002</v>
       </c>
       <c r="F187" s="5">
-        <v>1675</v>
+        <v>5904.375</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="23" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C188" s="5">
-        <v>632.1</v>
+        <v>3882.4500000000003</v>
       </c>
       <c r="D188" s="5">
-        <v>6503.63</v>
+        <v>24583.350000000002</v>
       </c>
       <c r="E188" s="5">
-        <v>4254.6750000000002</v>
+        <v>14714.150000000001</v>
       </c>
       <c r="F188" s="5">
-        <v>5904.375</v>
+        <v>20353.850000000002</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="23" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C189" s="5">
-        <v>3882.4500000000003</v>
-      </c>
-      <c r="D189" s="5">
-        <v>24583.350000000002</v>
-      </c>
-      <c r="E189" s="5">
-        <v>14714.150000000001</v>
-      </c>
-      <c r="F189" s="5">
-        <v>20353.850000000002</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="23" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
+      <c r="D190" s="5">
+        <v>5724</v>
+      </c>
+      <c r="E190" s="5">
+        <v>5549</v>
+      </c>
+      <c r="F190" s="5">
+        <f>5585+38</f>
+        <v>5623</v>
+      </c>
     </row>
     <row r="191" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5">
-        <v>5724</v>
+        <v>20177.099999999999</v>
       </c>
       <c r="E191" s="5">
-        <v>5549</v>
+        <v>19560.23</v>
       </c>
       <c r="F191" s="5">
-        <f>5585+38</f>
-        <v>5623</v>
+        <v>19821.080000000002</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="23" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5">
-        <v>20177.099999999999</v>
+        <v>0</v>
       </c>
       <c r="E192" s="5">
-        <v>19560.23</v>
+        <v>0</v>
       </c>
       <c r="F192" s="5">
-        <v>19821.080000000002</v>
+        <v>25740.99</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="23" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="C193" s="5"/>
-      <c r="D193" s="5">
-        <v>0</v>
-      </c>
-      <c r="E193" s="5">
-        <v>0</v>
-      </c>
-      <c r="F193" s="5">
-        <v>25740.99</v>
-      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="23" t="s">
-        <v>222</v>
+      <c r="A194" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C194" s="5">
+        <v>745</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1142</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1482</v>
+      </c>
+      <c r="F194" s="5">
+        <v>1291</v>
+      </c>
     </row>
     <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C195" s="5">
-        <v>745</v>
+        <v>2235</v>
       </c>
       <c r="D195" s="5">
-        <v>1142</v>
+        <v>3426</v>
       </c>
       <c r="E195" s="5">
-        <v>1482</v>
+        <v>4446</v>
       </c>
       <c r="F195" s="5">
-        <v>1291</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="21" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C196" s="5">
-        <v>2235</v>
+        <v>12722.4</v>
       </c>
       <c r="D196" s="5">
-        <v>3426</v>
+        <v>10989.6</v>
       </c>
       <c r="E196" s="5">
-        <v>4446</v>
+        <v>8436</v>
       </c>
       <c r="F196" s="5">
-        <v>3873</v>
+        <v>5038.7999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="21" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C197" s="5">
-        <v>12722.4</v>
-      </c>
-      <c r="D197" s="5">
-        <v>10989.6</v>
-      </c>
-      <c r="E197" s="5">
-        <v>8436</v>
-      </c>
-      <c r="F197" s="5">
-        <v>5038.7999999999993</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="21" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C198" s="5">
+        <v>179</v>
+      </c>
+      <c r="D198" s="5">
+        <v>394</v>
+      </c>
+      <c r="E198" s="5">
+        <v>435</v>
+      </c>
+      <c r="F198" s="5">
+        <v>490</v>
+      </c>
     </row>
     <row r="199" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C199" s="5">
-        <v>179</v>
+        <v>511.94</v>
       </c>
       <c r="D199" s="5">
-        <v>394</v>
+        <v>1126.8399999999999</v>
       </c>
       <c r="E199" s="5">
-        <v>435</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="F199" s="5">
-        <v>490</v>
+        <v>1401.4</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A200" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C200" s="5">
-        <v>511.94</v>
+        <v>2257.1999999999998</v>
       </c>
       <c r="D200" s="5">
-        <v>1126.8399999999999</v>
+        <v>2257.1999999999998</v>
       </c>
       <c r="E200" s="5">
-        <v>1244.0999999999999</v>
+        <v>2485.1999999999998</v>
       </c>
       <c r="F200" s="5">
-        <v>1401.4</v>
+        <v>2485.1999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A201" s="21" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C201" s="5">
-        <v>2257.1999999999998</v>
-      </c>
-      <c r="D201" s="5">
-        <v>2257.1999999999998</v>
-      </c>
-      <c r="E201" s="5">
-        <v>2485.1999999999998</v>
-      </c>
-      <c r="F201" s="5">
-        <v>2485.1999999999998</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="21" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C202" s="5">
+        <v>15548</v>
+      </c>
+      <c r="D202" s="5">
+        <v>11530</v>
+      </c>
+      <c r="E202" s="5">
+        <v>15883</v>
+      </c>
+      <c r="F202" s="5">
+        <v>14052</v>
+      </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C203" s="5">
-        <v>15548</v>
+        <v>53174.16</v>
       </c>
       <c r="D203" s="5">
-        <v>11530</v>
+        <v>39432.6</v>
       </c>
       <c r="E203" s="5">
-        <v>15883</v>
+        <v>54319.859999999993</v>
       </c>
       <c r="F203" s="5">
-        <v>14052</v>
+        <v>48057.84</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9062,91 +9069,91 @@
         <v>67</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C204" s="5">
-        <v>53174.16</v>
+        <v>134087.4</v>
       </c>
       <c r="D204" s="5">
-        <v>39432.6</v>
+        <v>97835.040000000008</v>
       </c>
       <c r="E204" s="5">
-        <v>54319.859999999993</v>
+        <v>74556.72</v>
       </c>
       <c r="F204" s="5">
-        <v>48057.84</v>
+        <v>55229.040000000008</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="21" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C205" s="5">
-        <v>134087.4</v>
-      </c>
-      <c r="D205" s="5">
-        <v>97835.040000000008</v>
-      </c>
-      <c r="E205" s="5">
-        <v>74556.72</v>
-      </c>
-      <c r="F205" s="5">
-        <v>55229.040000000008</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A206" s="21" t="s">
-        <v>226</v>
+      <c r="A206" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C206" s="5">
+        <v>3440</v>
+      </c>
+      <c r="D206" s="5">
+        <v>5218</v>
+      </c>
+      <c r="E206" s="5">
+        <v>5765</v>
+      </c>
+      <c r="F206" s="5">
+        <v>6250</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A207" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C207" s="5">
-        <v>3440</v>
+        <v>10836</v>
       </c>
       <c r="D207" s="5">
-        <v>5218</v>
+        <v>16436.7</v>
       </c>
       <c r="E207" s="5">
-        <v>5765</v>
+        <v>18159.75</v>
       </c>
       <c r="F207" s="5">
-        <v>6250</v>
+        <v>19687.5</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="23" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C208" s="5">
-        <v>10836</v>
+        <v>40296.139000000003</v>
       </c>
       <c r="D208" s="5">
-        <v>16436.7</v>
+        <v>32161.548300000002</v>
       </c>
       <c r="E208" s="5">
-        <v>18159.75</v>
+        <v>31759.576800000003</v>
       </c>
       <c r="F208" s="5">
-        <v>19687.5</v>
+        <v>24460.65</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9154,71 +9161,71 @@
         <v>227</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C209" s="5">
-        <v>40296.139000000003</v>
-      </c>
-      <c r="D209" s="5">
-        <v>32161.548300000002</v>
-      </c>
-      <c r="E209" s="5">
-        <v>31759.576800000003</v>
-      </c>
-      <c r="F209" s="5">
-        <v>24460.65</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="23" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C210" s="5">
+        <v>2742</v>
+      </c>
+      <c r="D210" s="5">
+        <v>4911</v>
+      </c>
+      <c r="E210" s="5">
+        <v>4619</v>
+      </c>
+      <c r="F210" s="5">
+        <v>4711</v>
+      </c>
     </row>
     <row r="211" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="23" t="s">
         <v>117</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C211" s="5">
-        <v>2742</v>
+        <v>7403.4</v>
       </c>
       <c r="D211" s="5">
-        <v>4911</v>
+        <v>13259.7</v>
       </c>
       <c r="E211" s="5">
-        <v>4619</v>
+        <v>12471.3</v>
       </c>
       <c r="F211" s="5">
-        <v>4711</v>
+        <v>12719.7</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C212" s="5">
-        <v>7403.4</v>
+        <v>29823.66</v>
       </c>
       <c r="D212" s="5">
-        <v>13259.7</v>
+        <v>33914.699999999997</v>
       </c>
       <c r="E212" s="5">
-        <v>12471.3</v>
+        <v>24762.240000000002</v>
       </c>
       <c r="F212" s="5">
-        <v>12719.7</v>
+        <v>17299.440000000002</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9226,51 +9233,51 @@
         <v>228</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C213" s="5">
-        <v>29823.66</v>
-      </c>
-      <c r="D213" s="5">
-        <v>33914.699999999997</v>
-      </c>
-      <c r="E213" s="5">
-        <v>24762.240000000002</v>
-      </c>
-      <c r="F213" s="5">
-        <v>17299.440000000002</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C214" s="5">
+        <v>622</v>
+      </c>
+      <c r="D214" s="5">
+        <v>997</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1027</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1291</v>
+      </c>
     </row>
     <row r="215" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A215" s="23" t="s">
         <v>70</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C215" s="5">
-        <v>622</v>
+        <v>3674.1</v>
       </c>
       <c r="D215" s="5">
-        <v>997</v>
+        <v>5533.35</v>
       </c>
       <c r="E215" s="5">
-        <v>1027</v>
+        <v>5699.85</v>
       </c>
       <c r="F215" s="5">
-        <v>1291</v>
+        <v>7165.05</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9278,91 +9285,91 @@
         <v>70</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C216" s="5">
-        <v>3674.1</v>
+        <v>15040</v>
       </c>
       <c r="D216" s="5">
-        <v>5533.35</v>
+        <v>12160</v>
       </c>
       <c r="E216" s="5">
-        <v>5699.85</v>
+        <v>10275.200000000001</v>
       </c>
       <c r="F216" s="5">
-        <v>7165.05</v>
+        <v>9923.1999999999825</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C217" s="5">
-        <v>15040</v>
-      </c>
-      <c r="D217" s="5">
-        <v>12160</v>
-      </c>
-      <c r="E217" s="5">
-        <v>10275.200000000001</v>
-      </c>
-      <c r="F217" s="5">
-        <v>9923.1999999999825</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C218" s="5">
+        <v>5531</v>
+      </c>
+      <c r="D218" s="5">
+        <v>6675</v>
+      </c>
+      <c r="E218" s="5">
+        <v>7602</v>
+      </c>
+      <c r="F218" s="5">
+        <v>6751</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A219" s="23" t="s">
         <v>118</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C219" s="5">
-        <v>5531</v>
+        <v>14933.7</v>
       </c>
       <c r="D219" s="5">
-        <v>6675</v>
+        <v>18022.5</v>
       </c>
       <c r="E219" s="5">
-        <v>7602</v>
+        <v>20525.400000000001</v>
       </c>
       <c r="F219" s="5">
-        <v>6751</v>
+        <v>18227.7</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A220" s="23" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C220" s="5">
-        <v>14933.7</v>
+        <v>23182.720000000001</v>
       </c>
       <c r="D220" s="5">
-        <v>18022.5</v>
+        <v>15230.22</v>
       </c>
       <c r="E220" s="5">
-        <v>20525.400000000001</v>
+        <v>13594.04</v>
       </c>
       <c r="F220" s="5">
-        <v>18227.7</v>
+        <v>11504.88</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9370,71 +9377,71 @@
         <v>230</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C221" s="5">
-        <v>23182.720000000001</v>
-      </c>
-      <c r="D221" s="5">
-        <v>15230.22</v>
-      </c>
-      <c r="E221" s="5">
-        <v>13594.04</v>
-      </c>
-      <c r="F221" s="5">
-        <v>11504.88</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="23" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C222" s="5">
+        <v>2927</v>
+      </c>
+      <c r="D222" s="5">
+        <v>3757</v>
+      </c>
+      <c r="E222" s="5">
+        <v>3835</v>
+      </c>
+      <c r="F222" s="5">
+        <v>3706</v>
+      </c>
     </row>
     <row r="223" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C223" s="5">
-        <v>2927</v>
+        <v>8195.6</v>
       </c>
       <c r="D223" s="5">
-        <v>3757</v>
+        <v>10519.6</v>
       </c>
       <c r="E223" s="5">
-        <v>3835</v>
+        <v>10738</v>
       </c>
       <c r="F223" s="5">
-        <v>3706</v>
+        <v>10376.799999999999</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="23" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C224" s="5">
-        <v>8195.6</v>
+        <v>25504.92</v>
       </c>
       <c r="D224" s="5">
-        <v>10519.6</v>
+        <v>20056.400000000001</v>
       </c>
       <c r="E224" s="5">
-        <v>10738</v>
+        <v>16795.64</v>
       </c>
       <c r="F224" s="5">
-        <v>10376.799999999999</v>
+        <v>12252.5</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9442,71 +9449,71 @@
         <v>231</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C225" s="5">
-        <v>25504.92</v>
-      </c>
-      <c r="D225" s="5">
-        <v>20056.400000000001</v>
-      </c>
-      <c r="E225" s="5">
-        <v>16795.64</v>
-      </c>
-      <c r="F225" s="5">
-        <v>12252.5</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="23" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C226" s="5">
+        <v>323.2</v>
+      </c>
+      <c r="D226" s="5">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E226" s="5">
+        <v>803.5</v>
+      </c>
+      <c r="F226" s="5">
+        <v>1011.4</v>
+      </c>
     </row>
     <row r="227" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C227" s="5">
-        <v>323.2</v>
+        <v>1002</v>
       </c>
       <c r="D227" s="5">
-        <v>132.80000000000001</v>
+        <v>412</v>
       </c>
       <c r="E227" s="5">
-        <v>803.5</v>
+        <v>2491</v>
       </c>
       <c r="F227" s="5">
-        <v>1011.4</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="23" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C228" s="5">
-        <v>1002</v>
+        <v>7974</v>
       </c>
       <c r="D228" s="5">
-        <v>412</v>
+        <v>3464</v>
       </c>
       <c r="E228" s="5">
-        <v>2491</v>
+        <v>5986</v>
       </c>
       <c r="F228" s="5">
-        <v>3135</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9514,71 +9521,71 @@
         <v>232</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C229" s="5">
-        <v>7974</v>
-      </c>
-      <c r="D229" s="5">
-        <v>3464</v>
-      </c>
-      <c r="E229" s="5">
-        <v>5986</v>
-      </c>
-      <c r="F229" s="5">
-        <v>5156</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A230" s="23" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C230" s="5">
+        <v>702</v>
+      </c>
+      <c r="D230" s="5">
+        <v>658</v>
+      </c>
+      <c r="E230" s="5">
+        <v>670</v>
+      </c>
+      <c r="F230" s="5">
+        <v>900</v>
+      </c>
     </row>
     <row r="231" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A231" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C231" s="5">
-        <v>702</v>
+        <v>2421.9</v>
       </c>
       <c r="D231" s="5">
-        <v>658</v>
+        <v>2270.1</v>
       </c>
       <c r="E231" s="5">
-        <v>670</v>
+        <v>2311.5</v>
       </c>
       <c r="F231" s="5">
-        <v>900</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A232" s="23" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C232" s="5">
-        <v>2421.9</v>
+        <v>13912.8</v>
       </c>
       <c r="D232" s="5">
-        <v>2270.1</v>
+        <v>7663.2</v>
       </c>
       <c r="E232" s="5">
-        <v>2311.5</v>
+        <v>6547.2</v>
       </c>
       <c r="F232" s="5">
-        <v>3105</v>
+        <v>4687.2</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -9586,71 +9593,71 @@
         <v>233</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C233" s="5">
-        <v>13912.8</v>
-      </c>
-      <c r="D233" s="5">
-        <v>7663.2</v>
-      </c>
-      <c r="E233" s="5">
-        <v>6547.2</v>
-      </c>
-      <c r="F233" s="5">
-        <v>4687.2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:6" ht="18" customHeight="1">
       <c r="A234" s="23" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C234" s="5">
+        <v>308</v>
+      </c>
+      <c r="D234" s="5">
+        <v>359</v>
+      </c>
+      <c r="E234" s="5">
+        <v>340</v>
+      </c>
+      <c r="F234" s="5">
+        <v>138</v>
+      </c>
     </row>
     <row r="235" spans="1:6" ht="18" customHeight="1">
       <c r="A235" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C235" s="5">
-        <v>308</v>
+        <v>924</v>
       </c>
       <c r="D235" s="5">
-        <v>359</v>
+        <v>1077</v>
       </c>
       <c r="E235" s="5">
-        <v>340</v>
+        <v>1020</v>
       </c>
       <c r="F235" s="5">
-        <v>138</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="18" customHeight="1">
       <c r="A236" s="23" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C236" s="5">
-        <v>924</v>
+        <v>3264.3</v>
       </c>
       <c r="D236" s="5">
-        <v>1077</v>
+        <v>2561.2199999999998</v>
       </c>
       <c r="E236" s="5">
-        <v>1020</v>
+        <v>1807.92</v>
       </c>
       <c r="F236" s="5">
-        <v>414</v>
+        <v>837.00000000000011</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="18" customHeight="1">
@@ -9658,89 +9665,69 @@
         <v>234</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" s="5">
-        <v>3264.3</v>
-      </c>
-      <c r="D237" s="5">
-        <v>2561.2199999999998</v>
-      </c>
-      <c r="E237" s="5">
-        <v>1807.92</v>
-      </c>
-      <c r="F237" s="5">
-        <v>837.00000000000011</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" ht="18" customHeight="1">
       <c r="A238" s="23" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
+      <c r="F238" s="5">
+        <v>2709</v>
+      </c>
     </row>
     <row r="239" spans="1:6" ht="18" customHeight="1">
       <c r="A239" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5">
-        <v>2709</v>
+        <v>8668.8000000000011</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="18" customHeight="1">
       <c r="A240" s="23" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
-      <c r="F240" s="5">
-        <v>8668.8000000000011</v>
-      </c>
+      <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" ht="18" customHeight="1">
       <c r="A241" s="23" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-    </row>
-    <row r="242" spans="1:6" ht="18" customHeight="1">
-      <c r="A242" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B242" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5">
+      <c r="F241" s="5">
         <v>13990.743800000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F242" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:F241" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9764,12 +9751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="66">
@@ -11644,7 +11631,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="65">
+      <c r="A149" s="70">
         <v>49</v>
       </c>
       <c r="B149" s="21" t="s">
@@ -11658,7 +11645,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="65"/>
+      <c r="A150" s="70"/>
       <c r="B150" s="21" t="s">
         <v>64</v>
       </c>
@@ -11670,7 +11657,7 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="65"/>
+      <c r="A151" s="70"/>
       <c r="B151" s="21" t="s">
         <v>64</v>
       </c>
@@ -11796,7 +11783,7 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="65">
+      <c r="A161" s="70">
         <v>53</v>
       </c>
       <c r="B161" s="23" t="s">
@@ -11810,7 +11797,7 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="65"/>
+      <c r="A162" s="70"/>
       <c r="B162" s="23" t="s">
         <v>70</v>
       </c>
@@ -11822,7 +11809,7 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="65"/>
+      <c r="A163" s="70"/>
       <c r="B163" s="23" t="s">
         <v>70</v>
       </c>
@@ -11834,7 +11821,7 @@
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="65">
+      <c r="A164" s="70">
         <v>54</v>
       </c>
       <c r="B164" s="23" t="s">
@@ -11848,7 +11835,7 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="65"/>
+      <c r="A165" s="70"/>
       <c r="B165" s="23" t="s">
         <v>118</v>
       </c>
@@ -11860,7 +11847,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="65"/>
+      <c r="A166" s="70"/>
       <c r="B166" s="23" t="s">
         <v>118</v>
       </c>
@@ -11872,7 +11859,7 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="65">
+      <c r="A167" s="70">
         <v>55</v>
       </c>
       <c r="B167" s="23" t="s">
@@ -11886,7 +11873,7 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="65"/>
+      <c r="A168" s="70"/>
       <c r="B168" s="23" t="s">
         <v>72</v>
       </c>
@@ -11898,7 +11885,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="65"/>
+      <c r="A169" s="70"/>
       <c r="B169" s="23" t="s">
         <v>72</v>
       </c>
@@ -11910,7 +11897,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="65">
+      <c r="A170" s="70">
         <v>56</v>
       </c>
       <c r="B170" s="23" t="s">
@@ -11924,7 +11911,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="65"/>
+      <c r="A171" s="70"/>
       <c r="B171" s="23" t="s">
         <v>73</v>
       </c>
@@ -11936,7 +11923,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="65"/>
+      <c r="A172" s="70"/>
       <c r="B172" s="23" t="s">
         <v>73</v>
       </c>
@@ -11948,7 +11935,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="65">
+      <c r="A173" s="70">
         <v>57</v>
       </c>
       <c r="B173" s="23" t="s">
@@ -11962,7 +11949,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="65"/>
+      <c r="A174" s="70"/>
       <c r="B174" s="23" t="s">
         <v>74</v>
       </c>
@@ -11974,7 +11961,7 @@
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="65"/>
+      <c r="A175" s="70"/>
       <c r="B175" s="23" t="s">
         <v>74</v>
       </c>
@@ -11986,7 +11973,7 @@
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="65">
+      <c r="A176" s="70">
         <v>58</v>
       </c>
       <c r="B176" s="23" t="s">
@@ -12000,7 +11987,7 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="65"/>
+      <c r="A177" s="70"/>
       <c r="B177" s="23" t="s">
         <v>75</v>
       </c>
@@ -12012,7 +11999,7 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="65"/>
+      <c r="A178" s="70"/>
       <c r="B178" s="23" t="s">
         <v>75</v>
       </c>
@@ -12024,7 +12011,7 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="69">
+      <c r="A179" s="71">
         <v>59</v>
       </c>
       <c r="B179" s="27" t="s">
@@ -12038,7 +12025,7 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="69"/>
+      <c r="A180" s="71"/>
       <c r="B180" s="27" t="s">
         <v>128</v>
       </c>
@@ -12050,7 +12037,7 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="69"/>
+      <c r="A181" s="71"/>
       <c r="B181" s="27" t="s">
         <v>128</v>
       </c>
@@ -12063,40 +12050,15 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A112:A114"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A152:A154"/>
     <mergeCell ref="A155:A157"/>
@@ -12113,15 +12075,40 @@
     <mergeCell ref="A121:A124"/>
     <mergeCell ref="A125:A127"/>
     <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年水电及收入数据.xlsx
+++ b/2019年水电及收入数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C531E-0A79-49D7-AB91-97AED1D82757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1AE16-A299-4D24-B7CA-3D0C62DED632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5351,7 +5351,7 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
